--- a/jpcore-r4/feature/ext-terminology-check/CodeSystem-iso1366-part1-2.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/CodeSystem-iso1366-part1-2.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T05:38:38+00:00</t>
+    <t>2023-08-30T09:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
